--- a/differences_3_0.15.xlsx
+++ b/differences_3_0.15.xlsx
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
